--- a/upload_files/data_engineer_mid__dba_mid_jl.xlsx
+++ b/upload_files/data_engineer_mid__dba_mid_jl.xlsx
@@ -223,10 +223,10 @@
     <t>sql : 3</t>
   </si>
   <si>
+    <t>design : 2</t>
+  </si>
+  <si>
     <t>oracle : 3</t>
-  </si>
-  <si>
-    <t>design : 2</t>
   </si>
   <si>
     <t>30.43</t>
@@ -641,7 +641,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
         <v>71</v>
@@ -658,7 +658,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -666,7 +666,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -682,7 +682,7 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -690,7 +690,7 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -698,7 +698,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:11">
